--- a/doc/画面遷移図_A-1.xlsx
+++ b/doc/画面遷移図_A-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C27BF4-AB47-4D48-A8EB-F27915ADDD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971938EA-7E32-4238-98FE-DAF462E9A15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3714,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/画面遷移図_A-1.xlsx
+++ b/doc/画面遷移図_A-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C27BF4-AB47-4D48-A8EB-F27915ADDD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EFE266-C4E8-4155-9873-903E010FB073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3664</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -442,8 +442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4638675" y="1333501"/>
-          <a:ext cx="2190750" cy="2771774"/>
+          <a:off x="6292606" y="1123462"/>
+          <a:ext cx="2133600" cy="2973021"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -532,15 +532,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・所定の行数（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>13</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>行）を超えた場合「もっと見る」で詳細表示</a:t>
+            <a:t>・所定の高さを超えた場合「もっと見る」で詳細・コメント欄表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -584,10 +576,10 @@
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3664</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>118819</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -605,8 +597,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2190750" y="2252663"/>
-          <a:ext cx="2447925" cy="466725"/>
+          <a:off x="3552337" y="2249244"/>
+          <a:ext cx="2740269" cy="360729"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -697,13 +689,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>383951</xdr:colOff>
+      <xdr:colOff>386618</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>393476</xdr:colOff>
+      <xdr:colOff>396143</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -723,8 +715,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7373423" y="4171816"/>
-          <a:ext cx="9525" cy="891057"/>
+          <a:off x="7359406" y="4096483"/>
+          <a:ext cx="9525" cy="873857"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1109,7 +1101,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>マイページ</a:t>
+            <a:t>マイページ画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
@@ -1551,7 +1543,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ランチ日記登録</a:t>
+            <a:t>ランチ日記登録画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
@@ -3714,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/画面遷移図_A-1.xlsx
+++ b/doc/画面遷移図_A-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EFE266-C4E8-4155-9873-903E010FB073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBFD5B9-052E-487A-8A54-273A8637D750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,8 +195,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>成功</t>
-    <rPh sb="0" eb="2">
+    <t>更新削除成功</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンサクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -750,14 +753,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>107324</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>120740</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>48848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -772,8 +775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13461508" y="5956479"/>
-          <a:ext cx="2185921" cy="1059824"/>
+          <a:off x="13441729" y="5409713"/>
+          <a:ext cx="2184888" cy="1746250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -825,6 +828,14 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・ボタン押下前にアラート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・失敗でフォームを維持したまま画面移動しない</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -923,14 +934,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・登録（押下でランチ日記か行きたい場所リストかを選択）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・マッピング</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1318,14 +1321,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>172926</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>114032</xdr:rowOff>
+      <xdr:rowOff>30530</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1343,8 +1346,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12236003" y="6370884"/>
-          <a:ext cx="1225505" cy="115507"/>
+          <a:off x="12216912" y="6252552"/>
+          <a:ext cx="1224817" cy="30286"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1493,8 +1496,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>242418</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>129860</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -1515,8 +1518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9968650" y="1967783"/>
-          <a:ext cx="2185921" cy="1493414"/>
+          <a:off x="9950591" y="1477596"/>
+          <a:ext cx="2184889" cy="1922028"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1577,6 +1580,45 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・「登録する」ボタン押下でタイムラインへ</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・失敗でフォームを維持したまま画面移動しない</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2762,14 +2804,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>657360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>147571</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>48847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>106522</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>67077</xdr:rowOff>
+      <xdr:rowOff>67078</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2784,8 +2826,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12436163" y="2159895"/>
-          <a:ext cx="2185922" cy="1140316"/>
+          <a:off x="12417072" y="1514232"/>
+          <a:ext cx="2184546" cy="1727846"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2837,6 +2879,45 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・登録ボタンの表示</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・失敗でフォームを維持したまま画面移動しない</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2903,7 +2984,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>93908</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>67077</xdr:rowOff>
+      <xdr:rowOff>67078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -2926,8 +3007,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8451760" y="3300211"/>
-          <a:ext cx="5077364" cy="2374542"/>
+          <a:off x="8434389" y="3242078"/>
+          <a:ext cx="5074956" cy="2326383"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2961,13 +3042,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>184034</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>148774</xdr:rowOff>
+      <xdr:rowOff>148773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>322213</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>14620</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>24422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2982,8 +3063,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9892207" y="8281659"/>
-          <a:ext cx="2189718" cy="1575461"/>
+          <a:off x="9892207" y="8281658"/>
+          <a:ext cx="2189718" cy="2098149"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3028,6 +3109,45 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・ボタン押下前にアラート</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・失敗でフォームを維持したまま画面移動しない</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3706,8 +3826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3812,14 +3932,16 @@
       <c r="K46" t="s">
         <v>12</v>
       </c>
-      <c r="M46" t="s">
-        <v>21</v>
-      </c>
       <c r="N46" t="s">
         <v>10</v>
       </c>
       <c r="O46" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="L47" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.15">
